--- a/useCaseDescriptionFormat.xlsx
+++ b/useCaseDescriptionFormat.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="page2" localSheetId="0">Sheet1!#REF!</definedName>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
   <si>
     <t>MUMSched: Use Case Description</t>
   </si>
@@ -56,9 +58,6 @@
   </si>
   <si>
     <t>Preconditions</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t>Flows of Events:</t>
@@ -214,6 +213,84 @@
   </si>
   <si>
     <t>No duplicate member profiles. A unique profile is identified by email address and registration number.</t>
+  </si>
+  <si>
+    <t>Check-out books</t>
+  </si>
+  <si>
+    <t>In this use case the librarian borrows a book to the member and check it out on the system.</t>
+  </si>
+  <si>
+    <t>The librarian must log in first into the system.</t>
+  </si>
+  <si>
+    <t>The librarian must first check if the member exists in the system</t>
+  </si>
+  <si>
+    <t>The system checks the existence of the member in the system.</t>
+  </si>
+  <si>
+    <t>If the member already exist the librarian checks if the member doesn't have any overdue penalty.</t>
+  </si>
+  <si>
+    <t>The system shows the status of the member.</t>
+  </si>
+  <si>
+    <t>In case the member doesn't have any overdue penalty, the librarian will input the book id into the system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system will change the status of the availability of the book, and at the same time will assign a due return date into the DB. </t>
+  </si>
+  <si>
+    <t>The book will be assigned to the user in the DB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No books will be check out for users with penalties, unless they pay the fine. </t>
+  </si>
+  <si>
+    <t>The librarian will tell the member that is unable to borrow a book unless they pay. In case the member pays to the librarian, the librarian will change the users status.</t>
+  </si>
+  <si>
+    <t>The system will change the user status in the DB. The system will check out the book normally.</t>
+  </si>
+  <si>
+    <t>1.1.1 change Member overdue status</t>
+  </si>
+  <si>
+    <t>The member status will be updated</t>
+  </si>
+  <si>
+    <t>The system will execute the charge overdue function.</t>
+  </si>
+  <si>
+    <t>After the librarion receives the money regarding the fine, he/she is going to procede with the check out normally.</t>
+  </si>
+  <si>
+    <t>Charge Overdue fines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this use case the librarian will receive the payment, and after that the status of the member will change back to a normal status. </t>
+  </si>
+  <si>
+    <t>The librarian must log in first into the system. The librarian will receive the money regarding to the fine.</t>
+  </si>
+  <si>
+    <t>When the member checks in or tries to check out another book, the librarian will enter the members id into the system.</t>
+  </si>
+  <si>
+    <t>The system checks if the current date is later than the due date on the DB, in case this happens, the system will calculate the fine amount, and notifies this to the librarian.</t>
+  </si>
+  <si>
+    <t>The librarian must receive the money from the user, and after that must click on the system that the fines was paid.</t>
+  </si>
+  <si>
+    <t>The system will change the status of the member, and will unlock it to do check-out.</t>
+  </si>
+  <si>
+    <t>The member will be availabe to perform different actions in the library.</t>
+  </si>
+  <si>
+    <t>The member can't check out more books unless he changes the status by paying the fine.</t>
   </si>
 </sst>
 </file>
@@ -365,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -465,6 +542,45 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M54"/>
+  <dimension ref="B2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:K6"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,7 +873,7 @@
     <col min="13" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -765,27 +881,15 @@
         <v>0</v>
       </c>
       <c r="F2" s="27"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="27"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
@@ -793,15 +897,8 @@
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="32"/>
-      <c r="I4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" spans="2:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
@@ -811,37 +908,19 @@
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="I5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="2:13" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="29"/>
-      <c r="I6" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>5</v>
       </c>
@@ -851,17 +930,8 @@
         <v>6</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="I7" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -869,924 +939,481 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="I8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="23" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
-      <c r="I9" s="23" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="2:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
-        <v>9</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="I10" s="14" t="s">
+    </row>
+    <row r="11" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
         <v>9</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
-        <v>10</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
-      <c r="I11" s="17" t="s">
+    </row>
+    <row r="12" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
-        <v>11</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
-      <c r="I12" s="17" t="s">
+    </row>
+    <row r="13" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>2</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="5">
-        <v>2</v>
-      </c>
-      <c r="J15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="I16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="I17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="I19" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
-      <c r="I20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="I22" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:6" ht="28" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>1</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="112" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:6" ht="112" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>2</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="5">
-        <v>2</v>
-      </c>
-      <c r="J25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-    </row>
-    <row r="27" spans="2:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="I27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="28" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="28" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>1</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>2</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="5">
-        <v>2</v>
-      </c>
-      <c r="J30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:6" ht="28" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>3</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="5">
-        <v>3</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="I32" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-    </row>
-    <row r="33" spans="2:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
-      <c r="I33" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-    </row>
-    <row r="34" spans="2:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="I34" s="15" t="s">
+    </row>
+    <row r="35" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-    </row>
-    <row r="35" spans="2:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
-      <c r="I35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-    </row>
-    <row r="36" spans="2:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="2:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
-      <c r="I37" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:6" ht="28" x14ac:dyDescent="0.2">
       <c r="B39" s="5">
         <v>1</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="5">
-        <v>1</v>
-      </c>
-      <c r="J39" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5">
         <v>2</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I40" s="5">
-        <v>2</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" ht="210" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="210" x14ac:dyDescent="0.2">
       <c r="B41" s="5">
         <v>3</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" s="5">
-        <v>3</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
-      <c r="I42" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-    </row>
-    <row r="43" spans="2:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
-      <c r="I43" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-    </row>
-    <row r="44" spans="2:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
-      <c r="I44" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" spans="2:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
-      <c r="I45" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-    </row>
-    <row r="46" spans="2:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
-      <c r="I46" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="5">
         <v>1</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" s="5">
-        <v>1</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" ht="154" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="154" x14ac:dyDescent="0.2">
       <c r="B49" s="5">
         <v>2</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="5">
-        <v>2</v>
-      </c>
-      <c r="J49" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
-      <c r="I50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-    </row>
-    <row r="51" spans="2:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="I51" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-    </row>
-    <row r="53" spans="2:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
-      <c r="I53" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-    </row>
-    <row r="54" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
-      <c r="I54" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="I34:M34"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="I33:M33"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
+  <mergeCells count="56">
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B16:F16"/>
@@ -1846,4 +1473,536 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5">
+        <v>2</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="2:6" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="2:6" s="46" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>